--- a/PASKurs/лабораторные работы/l3/PAS3.PAS2.PAS1.xlsx
+++ b/PASKurs/лабораторные работы/l3/PAS3.PAS2.PAS1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\KursPro\PASKurs\лабораторные работы\l3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127427BC-E8E7-48CD-A01F-363ACA935CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D990AF-89E0-4C10-B833-10873E696F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2084,6 +2084,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2131,123 +2248,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2681,7 +2681,7 @@
   <dimension ref="E8:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,19 +2714,19 @@
         <v>130</v>
       </c>
       <c r="F9" s="80">
-        <v>16940</v>
+        <v>7290</v>
       </c>
       <c r="G9" s="80">
         <v>8190</v>
       </c>
       <c r="H9" s="80">
-        <v>14700</v>
+        <v>6615</v>
       </c>
       <c r="I9" s="80">
-        <v>8030</v>
+        <v>7630</v>
       </c>
       <c r="J9" s="80">
-        <v>8145</v>
+        <v>19030</v>
       </c>
     </row>
   </sheetData>
@@ -2739,7 +2739,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="L23" sqref="L23:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,34 +2757,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="126" t="s">
+      <c r="C1" s="172"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="122" t="s">
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="124" t="s">
+      <c r="L1" s="163" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="141"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
       <c r="E2" s="68" t="s">
         <v>5</v>
       </c>
@@ -2803,31 +2803,31 @@
       <c r="J2" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="122"/>
-      <c r="L2" s="124"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="141"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="129" t="s">
+      <c r="A3" s="145"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="125"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="164"/>
       <c r="O3" s="83"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="142"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="176"/>
       <c r="E4" s="74" t="str">
         <f>'4-ОМК'!I7</f>
         <v>1 -  11</v>
@@ -2899,11 +2899,11 @@
       <c r="A6" s="85">
         <v>2</v>
       </c>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="145"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="68" t="s">
         <v>56</v>
       </c>
@@ -2933,11 +2933,11 @@
       <c r="A7" s="84">
         <v>3</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="145"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
       <c r="E7" s="78" t="str">
         <f>E4</f>
         <v>1 -  11</v>
@@ -2968,11 +2968,11 @@
       <c r="A8" s="84">
         <v>4</v>
       </c>
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
       <c r="E8" s="86">
         <v>2</v>
       </c>
@@ -3005,7 +3005,7 @@
       <c r="B9" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="141" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="52" t="s">
@@ -3041,7 +3041,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="158"/>
-      <c r="C10" s="150"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="81" t="s">
         <v>62</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="158"/>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="153" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="81" t="s">
@@ -3119,7 +3119,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="158"/>
-      <c r="C12" s="152"/>
+      <c r="C12" s="154"/>
       <c r="D12" s="52" t="s">
         <v>66</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="158"/>
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="127" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="81" t="s">
@@ -3197,13 +3197,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="159"/>
-      <c r="C14" s="154"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="120" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="62">
         <f>'Lab3 - TODO'!F9</f>
-        <v>16940</v>
+        <v>7290</v>
       </c>
       <c r="F14" s="91">
         <f>'Lab3 - TODO'!G9</f>
@@ -3211,15 +3211,15 @@
       </c>
       <c r="G14" s="91">
         <f>'Lab3 - TODO'!H9</f>
-        <v>14700</v>
+        <v>6615</v>
       </c>
       <c r="H14" s="91">
         <f>'Lab3 - TODO'!I9</f>
-        <v>8030</v>
+        <v>7630</v>
       </c>
       <c r="I14" s="91">
         <f>'Lab3 - TODO'!J9</f>
-        <v>8145</v>
+        <v>19030</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>56</v>
@@ -3229,14 +3229,14 @@
       </c>
       <c r="L14" s="50">
         <f>SUM(E14:K14)</f>
-        <v>56005</v>
+        <v>48755</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="85">
         <v>11</v>
       </c>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="143" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="160" t="s">
@@ -3275,8 +3275,8 @@
       <c r="A16" s="46">
         <v>12</v>
       </c>
-      <c r="B16" s="139"/>
-      <c r="C16" s="152"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="154"/>
       <c r="D16" s="81" t="s">
         <v>77</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="A17" s="85">
         <v>13</v>
       </c>
-      <c r="B17" s="139"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="56" t="s">
         <v>69</v>
       </c>
@@ -3349,7 +3349,7 @@
       <c r="A18" s="46">
         <v>14</v>
       </c>
-      <c r="B18" s="140"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="113" t="s">
         <v>70</v>
       </c>
@@ -3389,10 +3389,10 @@
       <c r="A19" s="85">
         <v>15</v>
       </c>
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="C19" s="141" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="115" t="s">
@@ -3427,8 +3427,8 @@
       <c r="A20" s="85">
         <v>16</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="150"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="69" t="s">
         <v>83</v>
       </c>
@@ -3470,8 +3470,8 @@
       <c r="A21" s="84">
         <v>17</v>
       </c>
-      <c r="B21" s="167"/>
-      <c r="C21" s="153" t="s">
+      <c r="B21" s="130"/>
+      <c r="C21" s="127" t="s">
         <v>81</v>
       </c>
       <c r="D21" s="52" t="s">
@@ -3506,8 +3506,8 @@
       <c r="A22" s="84">
         <v>18</v>
       </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="154"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="128"/>
       <c r="D22" s="114" t="s">
         <v>85</v>
       </c>
@@ -3547,14 +3547,14 @@
       <c r="A23" s="84">
         <v>19</v>
       </c>
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="134"/>
       <c r="E23" s="117">
         <f>ROUND((E10+E12+E14+E20+E22)/'4-ОМК'!H7, 2)</f>
-        <v>3622.55</v>
+        <v>2745.27</v>
       </c>
       <c r="F23" s="63">
         <f>ROUND((F10+F12+F14+F20+F22)/'4-ОМК'!H8,2)</f>
@@ -3562,15 +3562,15 @@
       </c>
       <c r="G23" s="63">
         <f>ROUND((G10+G12+G14+G20+G22)/'4-ОМК'!H9,2)</f>
-        <v>2623</v>
+        <v>1612.38</v>
       </c>
       <c r="H23" s="63">
         <f>ROUND((H10+H12+H14+H20+H22)/'4-ОМК'!H10,2)</f>
-        <v>2066.5</v>
+        <v>2016.5</v>
       </c>
       <c r="I23" s="63">
         <f>ROUND((I10+I12+I14+I20+I22)/'4-ОМК'!H11,2)</f>
-        <v>1803.63</v>
+        <v>3164.25</v>
       </c>
       <c r="J23" s="115">
         <f>ROUND((J10+J12+J20+J22)/'4-ОМК'!K7,2)</f>
@@ -3579,9 +3579,9 @@
       <c r="K23" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="164">
+      <c r="L23" s="125">
         <f>SUM(E24:J24)+K25</f>
-        <v>205732</v>
+        <v>198482</v>
       </c>
       <c r="S23" s="11"/>
     </row>
@@ -3589,14 +3589,14 @@
       <c r="A24" s="46">
         <v>20</v>
       </c>
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="173"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="137"/>
       <c r="E24" s="62">
         <f>E10+E12+E14+E20+E22</f>
-        <v>39848</v>
+        <v>30198</v>
       </c>
       <c r="F24" s="91">
         <f t="shared" ref="F24:I24" si="0">F10+F12+F14+F20+F22</f>
@@ -3604,15 +3604,15 @@
       </c>
       <c r="G24" s="91">
         <f t="shared" si="0"/>
-        <v>20984</v>
+        <v>12899</v>
       </c>
       <c r="H24" s="91">
         <f t="shared" si="0"/>
-        <v>16532</v>
+        <v>16132</v>
       </c>
       <c r="I24" s="91">
         <f t="shared" si="0"/>
-        <v>14429</v>
+        <v>25314</v>
       </c>
       <c r="J24" s="79">
         <f>J10+J12+J20+J22</f>
@@ -3621,48 +3621,48 @@
       <c r="K24" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="165"/>
+      <c r="L24" s="126"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="85">
         <v>21</v>
       </c>
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="176"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="140"/>
       <c r="K25" s="59">
         <f>K20+K12+K10+SUM(K16:K18)</f>
         <v>95279</v>
       </c>
-      <c r="L25" s="165"/>
+      <c r="L25" s="126"/>
     </row>
     <row r="26" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47">
         <v>22</v>
       </c>
-      <c r="B26" s="161" t="s">
+      <c r="B26" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="162"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
       <c r="L26" s="82">
         <f>L10+L12+L14+SUM(L16:L18)+L20+L22</f>
-        <v>205732</v>
+        <v>198482</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3677,25 +3677,25 @@
       <c r="M28" s="48"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="163" t="s">
+      <c r="B30" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="163"/>
+      <c r="C30" s="124"/>
       <c r="D30" s="14" t="s">
         <v>93</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="163" t="s">
+      <c r="F30" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="38"/>
@@ -3721,16 +3721,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="B1:D4"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B6:D6"/>
@@ -3742,11 +3737,16 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3775,27 +3775,27 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="172" t="s">
+      <c r="I1" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
       <c r="T1" s="177" t="s">
         <v>120</v>
       </c>
